--- a/Post_processing/Tables_after_wr_wb/Table_exp1.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Datetime</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>SOPHY_20220507_175223_A28.2_S.hdf5</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -510,25 +513,25 @@
         <v>0.4576938298681044</v>
       </c>
       <c r="J2">
-        <v>0.08936050955830703</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>312644327.0389756</v>
+        <v>31264432.70389756</v>
       </c>
       <c r="L2">
-        <v>84.95050552773536</v>
+        <v>74.95050552773536</v>
       </c>
       <c r="M2">
-        <v>683086173.8491683</v>
+        <v>68308617.38491683</v>
       </c>
       <c r="N2">
-        <v>88.34475494994035</v>
-      </c>
-      <c r="O2">
-        <v>7644161579.041354</v>
-      </c>
-      <c r="P2">
-        <v>98.83329858412331</v>
+        <v>78.34475494994035</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -560,25 +563,25 @@
         <v>0.8865578048753041</v>
       </c>
       <c r="J3">
-        <v>1.633908396461087E-10</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>876173101.0426654</v>
+        <v>87617310.10426654</v>
       </c>
       <c r="L3">
-        <v>89.42589915986575</v>
+        <v>79.42589915986575</v>
       </c>
       <c r="M3">
-        <v>988286489.8650354</v>
+        <v>98828648.98650356</v>
       </c>
       <c r="N3">
-        <v>89.94882858486262</v>
-      </c>
-      <c r="O3">
-        <v>6.048604022144595E+18</v>
-      </c>
-      <c r="P3">
-        <v>187.8165515391939</v>
+        <v>79.94882858486261</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -610,25 +613,25 @@
         <v>0.3144314797842156</v>
       </c>
       <c r="J4">
-        <v>0.07317968846977727</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4416358.651060541</v>
+        <v>441635.8651060541</v>
       </c>
       <c r="L4">
-        <v>66.45064335068002</v>
+        <v>56.45064335068002</v>
       </c>
       <c r="M4">
-        <v>14045535.94344736</v>
+        <v>1404553.594344736</v>
       </c>
       <c r="N4">
-        <v>71.47538315473589</v>
-      </c>
-      <c r="O4">
-        <v>191932163.6528703</v>
-      </c>
-      <c r="P4">
-        <v>82.83147759136128</v>
+        <v>61.47538315473589</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Post_processing/Tables_after_wr_wb/Table_exp1.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Datetime</t>
   </si>
@@ -61,6 +61,24 @@
     <t>C_after_wb [dB]</t>
   </si>
   <si>
+    <t>Theta X bar</t>
+  </si>
+  <si>
+    <t>Theta X</t>
+  </si>
+  <si>
+    <t>Theta Y bar</t>
+  </si>
+  <si>
+    <t>Theta Y</t>
+  </si>
+  <si>
+    <t>Wb x</t>
+  </si>
+  <si>
+    <t>Wb y</t>
+  </si>
+  <si>
     <t>2022-05-07  17:51:13</t>
   </si>
   <si>
@@ -71,9 +89,6 @@
   </si>
   <si>
     <t>SOPHY_20220507_175223_A28.2_S.hdf5</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -431,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,16 +498,34 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>29.2</v>
@@ -513,7 +546,7 @@
         <v>0.4576938298681044</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08936050955830703</v>
       </c>
       <c r="K2">
         <v>31264432.70389756</v>
@@ -527,22 +560,40 @@
       <c r="N2">
         <v>78.34475494994035</v>
       </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" t="s">
-        <v>19</v>
+      <c r="O2">
+        <v>764416157.9041355</v>
+      </c>
+      <c r="P2">
+        <v>88.83329858412333</v>
+      </c>
+      <c r="Q2">
+        <v>29.2</v>
+      </c>
+      <c r="R2">
+        <v>28.12121715590439</v>
+      </c>
+      <c r="S2">
+        <v>16.3</v>
+      </c>
+      <c r="T2">
+        <v>15.01700762527409</v>
+      </c>
+      <c r="U2">
+        <v>0.3677802805597843</v>
+      </c>
+      <c r="V2">
+        <v>0.2429725417096719</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>29.2</v>
@@ -563,7 +614,7 @@
         <v>0.8865578048753041</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.633908396461087E-10</v>
       </c>
       <c r="K3">
         <v>87617310.10426654</v>
@@ -577,22 +628,40 @@
       <c r="N3">
         <v>79.94882858486261</v>
       </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" t="s">
-        <v>19</v>
+      <c r="O3">
+        <v>6.048604022144595E+17</v>
+      </c>
+      <c r="P3">
+        <v>177.8165515391939</v>
+      </c>
+      <c r="Q3">
+        <v>29.2</v>
+      </c>
+      <c r="R3">
+        <v>24.17114628586393</v>
+      </c>
+      <c r="S3">
+        <v>15.49</v>
+      </c>
+      <c r="T3">
+        <v>16.4538618003865</v>
+      </c>
+      <c r="U3">
+        <v>3.630903750336385E-10</v>
+      </c>
+      <c r="V3">
+        <v>0.4500004706293059</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>28.2</v>
@@ -613,7 +682,7 @@
         <v>0.3144314797842156</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07317968846977727</v>
       </c>
       <c r="K4">
         <v>441635.8651060541</v>
@@ -627,11 +696,29 @@
       <c r="N4">
         <v>61.47538315473589</v>
       </c>
-      <c r="O4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
+      <c r="O4">
+        <v>19193216.36528703</v>
+      </c>
+      <c r="P4">
+        <v>72.83147759136129</v>
+      </c>
+      <c r="Q4">
+        <v>28.2</v>
+      </c>
+      <c r="R4">
+        <v>29.03508467005228</v>
+      </c>
+      <c r="S4">
+        <v>4.6</v>
+      </c>
+      <c r="T4">
+        <v>3.06869693142239</v>
+      </c>
+      <c r="U4">
+        <v>0.5491461119908604</v>
+      </c>
+      <c r="V4">
+        <v>0.1332608696881664</v>
       </c>
     </row>
   </sheetData>

--- a/Post_processing/Tables_after_wr_wb/Table_exp1.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp1.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Datetime</t>
   </si>
   <si>
     <t>Filename</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Pitch</t>
   </si>
   <si>
     <t>Azimuth</t>
@@ -446,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,208 +522,232 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2">
+        <v>27.1</v>
+      </c>
+      <c r="E2">
+        <v>2.67</v>
+      </c>
+      <c r="F2">
         <v>29.2</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>210</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>203.4362199138287</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.01825313402408037</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-17.38662557371369</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.4576938298681044</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.08936050955830703</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>31264432.70389756</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>74.95050552773536</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>68308617.38491683</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>78.34475494994035</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>764416157.9041355</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>88.83329858412333</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>29.2</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>28.12121715590439</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>16.3</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>15.01700762527409</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.3677802805597843</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.2429725417096719</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3">
+        <v>216.8</v>
+      </c>
+      <c r="E3">
+        <v>216.8</v>
+      </c>
+      <c r="F3">
         <v>29.2</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>210</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>207.423656979068</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.04733220847799152</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>-13.24843231271944</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.8865578048753041</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>1.633908396461087E-10</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>87617310.10426654</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>79.42589915986575</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>98828648.98650356</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>79.94882858486261</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>6.048604022144595E+17</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>177.8165515391939</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>29.2</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>24.17114628586393</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>15.49</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>16.4538618003865</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>3.630903750336385E-10</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.4500004706293059</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
+        <v>12.36</v>
+      </c>
+      <c r="E4">
+        <v>0.41</v>
+      </c>
+      <c r="F4">
         <v>28.2</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>195</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>202.9861770557992</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.000260134813807013</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>-35.84801522342697</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.3144314797842156</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.07317968846977727</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>441635.8651060541</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>56.45064335068002</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>1404553.594344736</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>61.47538315473589</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>19193216.36528703</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>72.83147759136129</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>28.2</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>29.03508467005228</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>4.6</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>3.06869693142239</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0.5491461119908604</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.1332608696881664</v>
       </c>
     </row>

--- a/Post_processing/Tables_after_wr_wb/Table_exp1.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Datetime</t>
   </si>
@@ -55,16 +55,22 @@
     <t>C_initial [dB]</t>
   </si>
   <si>
-    <t>C_after</t>
-  </si>
-  <si>
-    <t>C_after [dB]</t>
-  </si>
-  <si>
-    <t>C_after_wb</t>
-  </si>
-  <si>
-    <t>C_after_wb [dB]</t>
+    <t>C_after Wr</t>
+  </si>
+  <si>
+    <t>C_after Wr [dB]</t>
+  </si>
+  <si>
+    <t>C_after Wb Only</t>
+  </si>
+  <si>
+    <t>C_after Wb Only [dB]</t>
+  </si>
+  <si>
+    <t>C_after Wb</t>
+  </si>
+  <si>
+    <t>C_after Wb [dB]</t>
   </si>
   <si>
     <t>Theta X bar</t>
@@ -452,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,16 +534,22 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>27.1</v>
@@ -579,39 +591,45 @@
         <v>78.34475494994035</v>
       </c>
       <c r="Q2">
+        <v>349868558.9242054</v>
+      </c>
+      <c r="R2">
+        <v>85.43904916191835</v>
+      </c>
+      <c r="S2">
         <v>764416157.9041355</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>88.83329858412333</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>29.2</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>28.12121715590439</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>16.3</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>15.01700762527409</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>0.3677802805597843</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>0.2429725417096719</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>216.8</v>
@@ -653,39 +671,45 @@
         <v>79.94882858486261</v>
       </c>
       <c r="Q3">
+        <v>5.362437104432448E+17</v>
+      </c>
+      <c r="R3">
+        <v>177.293622114197</v>
+      </c>
+      <c r="S3">
         <v>6.048604022144595E+17</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>177.8165515391939</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>29.2</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>24.17114628586393</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>15.49</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>16.4538618003865</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>3.630903750336385E-10</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>0.4500004706293059</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>12.36</v>
@@ -727,27 +751,33 @@
         <v>61.47538315473589</v>
       </c>
       <c r="Q4">
+        <v>6034951.423555825</v>
+      </c>
+      <c r="R4">
+        <v>67.80673778730542</v>
+      </c>
+      <c r="S4">
         <v>19193216.36528703</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>72.83147759136129</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>28.2</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>29.03508467005228</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>4.6</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>3.06869693142239</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>0.5491461119908604</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>0.1332608696881664</v>
       </c>
     </row>

--- a/Post_processing/Tables_after_wr_wb/Table_exp1.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Datetime</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Wb y</t>
+  </si>
+  <si>
+    <t>Exp Constant</t>
+  </si>
+  <si>
+    <t>Exp Constant [dB]</t>
   </si>
   <si>
     <t>2022-05-07  17:51:13</t>
@@ -458,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,16 +546,22 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>27.1</v>
@@ -620,16 +632,22 @@
       <c r="Z2">
         <v>0.2429725417096719</v>
       </c>
+      <c r="AA2">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB2">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>216.8</v>
@@ -700,16 +718,22 @@
       <c r="Z3">
         <v>0.4500004706293059</v>
       </c>
+      <c r="AA3">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB3">
+        <v>85.85743731821252</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>12.36</v>
@@ -779,6 +803,12 @@
       </c>
       <c r="Z4">
         <v>0.1332608696881664</v>
+      </c>
+      <c r="AA4">
+        <v>385250961.9682089</v>
+      </c>
+      <c r="AB4">
+        <v>85.85743731821252</v>
       </c>
     </row>
   </sheetData>
